--- a/Pipeline_2-Vulnerability/Institutions/Outputs/Data/Inst_Index.xlsx
+++ b/Pipeline_2-Vulnerability/Institutions/Outputs/Data/Inst_Index.xlsx
@@ -34862,6 +34862,18 @@
           <t>C</t>
         </is>
       </c>
+      <c r="D1190">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1190">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1190">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1190">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
@@ -34879,6 +34891,18 @@
           <t>C10-C12</t>
         </is>
       </c>
+      <c r="D1191">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1191">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1191">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1191">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
@@ -34896,6 +34920,18 @@
           <t>C13-C15</t>
         </is>
       </c>
+      <c r="D1192">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1192">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1192">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1192">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
@@ -34913,6 +34949,18 @@
           <t>C16-C18</t>
         </is>
       </c>
+      <c r="D1193">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1193">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1193">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1193">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
@@ -34930,6 +34978,18 @@
           <t>C19-C22</t>
         </is>
       </c>
+      <c r="D1194">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1194">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1194">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1194">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
@@ -34947,6 +35007,18 @@
           <t>C23</t>
         </is>
       </c>
+      <c r="D1195">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1195">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1195">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1195">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
@@ -34964,6 +35036,18 @@
           <t>C24</t>
         </is>
       </c>
+      <c r="D1196">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1196">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1196">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1196">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
@@ -34981,6 +35065,18 @@
           <t>C25+C28-C30</t>
         </is>
       </c>
+      <c r="D1197">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1197">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1197">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1197">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
@@ -34998,6 +35094,18 @@
           <t>C26-C27</t>
         </is>
       </c>
+      <c r="D1198">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1198">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1198">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1198">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
@@ -35015,6 +35123,18 @@
           <t>C31-C32</t>
         </is>
       </c>
+      <c r="D1199">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1199">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1199">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1199">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
@@ -35032,6 +35152,18 @@
           <t>C33</t>
         </is>
       </c>
+      <c r="D1200">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1200">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1200">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1200">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
@@ -35049,6 +35181,18 @@
           <t>C</t>
         </is>
       </c>
+      <c r="D1201">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1201">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1201">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1201">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
@@ -35066,6 +35210,18 @@
           <t>C10-C12</t>
         </is>
       </c>
+      <c r="D1202">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1202">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1202">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1202">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
@@ -35083,6 +35239,18 @@
           <t>C13-C15</t>
         </is>
       </c>
+      <c r="D1203">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1203">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1203">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1203">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
@@ -35100,6 +35268,18 @@
           <t>C16-C18</t>
         </is>
       </c>
+      <c r="D1204">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1204">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1204">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1204">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -35117,6 +35297,18 @@
           <t>C19-C22</t>
         </is>
       </c>
+      <c r="D1205">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1205">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1205">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1205">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
@@ -35134,6 +35326,18 @@
           <t>C23</t>
         </is>
       </c>
+      <c r="D1206">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1206">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1206">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1206">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
@@ -35151,6 +35355,18 @@
           <t>C24</t>
         </is>
       </c>
+      <c r="D1207">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1207">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1207">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1207">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
@@ -35168,6 +35384,18 @@
           <t>C25+C28-C30</t>
         </is>
       </c>
+      <c r="D1208">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1208">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1208">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1208">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
@@ -35185,6 +35413,18 @@
           <t>C26-C27</t>
         </is>
       </c>
+      <c r="D1209">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1209">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1209">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1209">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
@@ -35202,6 +35442,18 @@
           <t>C31-C32</t>
         </is>
       </c>
+      <c r="D1210">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1210">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1210">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1210">
+        <v>0.4903195877196319</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
@@ -35218,6 +35470,18 @@
         <is>
           <t>C33</t>
         </is>
+      </c>
+      <c r="D1211">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="E1211">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="F1211">
+        <v>0.4868415654588436</v>
+      </c>
+      <c r="G1211">
+        <v>0.4903195877196319</v>
       </c>
     </row>
     <row r="1212">
